--- a/doc/开发计划表.xlsx
+++ b/doc/开发计划表.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,6 +169,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,13 +204,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -203,23 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,33 +259,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,45 +306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,192 +332,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -526,41 +526,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,19 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +599,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,137 +658,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +799,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1151,13 +1172,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1297,7 +1318,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1322,59 +1343,79 @@
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="2:4">
-      <c r="B3" t="s">
+    <row r="3" ht="26" customHeight="1" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="2:4">
-      <c r="B4" t="s">
+    <row r="4" ht="26" customHeight="1" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" ht="26" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="26" customHeight="1" spans="2:3">
-      <c r="B6" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" ht="26" customHeight="1" spans="3:3">
-      <c r="C7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="3:3">
-      <c r="C8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/doc/开发计划表.xlsx
+++ b/doc/开发计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>模块</t>
   </si>
@@ -105,6 +105,9 @@
     <t>年统计</t>
   </si>
   <si>
+    <t>功能点</t>
+  </si>
+  <si>
     <t>进度</t>
   </si>
   <si>
@@ -139,6 +142,81 @@
   </si>
   <si>
     <t>密钥写入数据库</t>
+  </si>
+  <si>
+    <t>密码管理</t>
+  </si>
+  <si>
+    <t>分页查询</t>
+  </si>
+  <si>
+    <t>根据ID查询</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>根据名称搜索</t>
+  </si>
+  <si>
+    <t>根据用户名搜索</t>
+  </si>
+  <si>
+    <t>根据ID修改</t>
+  </si>
+  <si>
+    <t>根据ID删除</t>
+  </si>
+  <si>
+    <t>多条删除</t>
+  </si>
+  <si>
+    <t>全部删除</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>管理登录测试</t>
+  </si>
+  <si>
+    <t>密钥测试</t>
+  </si>
+  <si>
+    <t>添加密码测试</t>
+  </si>
+  <si>
+    <t>修改密码测试</t>
+  </si>
+  <si>
+    <t>删除密码测试</t>
+  </si>
+  <si>
+    <t>密码列表测试</t>
+  </si>
+  <si>
+    <t>Token验证测试</t>
+  </si>
+  <si>
+    <t>API文档</t>
+  </si>
+  <si>
+    <t>密码添加</t>
+  </si>
+  <si>
+    <t>Swagger 3.0.0</t>
+  </si>
+  <si>
+    <t>密码修改</t>
+  </si>
+  <si>
+    <t>密码删除</t>
+  </si>
+  <si>
+    <t>密码分页列表</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -181,6 +259,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +327,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,106 +382,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,7 +404,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,186 +446,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -541,13 +613,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,26 +659,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,16 +725,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,7 +767,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,7 +776,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,119 +785,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,8 +916,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1161,7 +1282,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1171,136 +1292,166 @@
     <col min="3" max="3" width="65.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" ht="25" customHeight="1" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+    <row r="3" ht="25" customHeight="1" spans="1:3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="5" ht="25" customHeight="1" spans="1:3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="7" ht="25" customHeight="1" spans="1:3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+    <row r="9" ht="25" customHeight="1" spans="1:3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="10" ht="25" customHeight="1" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+    <row r="11" ht="25" customHeight="1" spans="1:3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+    <row r="12" ht="25" customHeight="1" spans="1:3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="13" ht="25" customHeight="1" spans="1:3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="14" ht="25" customHeight="1" spans="1:3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="17" ht="25" customHeight="1" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" ht="25" customHeight="1" spans="1:3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1315,20 +1466,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="61.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:4">
+    <row r="1" ht="26" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1336,93 +1488,332 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="26" customHeight="1" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" ht="26" customHeight="1" spans="1:4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="26" customHeight="1" spans="1:4">
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="26" customHeight="1" spans="1:4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" ht="26" customHeight="1" spans="1:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1" spans="1:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="1:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" ht="26" customHeight="1" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="26" customHeight="1" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" ht="26" customHeight="1" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" ht="26" customHeight="1" spans="1:5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="1:5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" ht="26" customHeight="1" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" ht="26" customHeight="1" spans="1:5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" ht="26" customHeight="1" spans="1:5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" ht="26" customHeight="1" spans="1:5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" ht="26" customHeight="1"/>
+    <row r="30" ht="26" customHeight="1" spans="1:1">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" ht="26" customHeight="1"/>
+    <row r="32" ht="26" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C25:C28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/开发计划表.xlsx
+++ b/doc/开发计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>模块</t>
   </si>
@@ -216,7 +216,13 @@
     <t>密码分页列表</t>
   </si>
   <si>
-    <t>UI</t>
+    <t>UI（AdminLTE）</t>
+  </si>
+  <si>
+    <t>管理员账号密码初始化</t>
+  </si>
+  <si>
+    <t>密钥初始化</t>
   </si>
 </sst>
 </file>
@@ -226,8 +232,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -253,7 +259,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,10 +309,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,75 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -358,17 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,13 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -404,181 +410,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,31 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,17 +701,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -755,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +773,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,6 +936,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1304,154 +1316,154 @@
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" ht="25" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1466,14 +1478,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="61.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
@@ -1690,129 +1703,156 @@
       </c>
     </row>
     <row r="18" ht="26" customHeight="1" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" ht="26" customHeight="1" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" ht="26" customHeight="1" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:5">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" ht="26" customHeight="1" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" ht="26" customHeight="1" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" ht="26" customHeight="1"/>
-    <row r="30" ht="26" customHeight="1" spans="1:1">
-      <c r="A30" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" ht="26" customHeight="1" spans="1:5">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" ht="26" customHeight="1" spans="1:5">
+      <c r="A30" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" ht="26" customHeight="1"/>
-    <row r="32" ht="26" customHeight="1"/>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="26" customHeight="1" spans="1:5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="C25:C28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
